--- a/Diccionario de datos - ItaliPizza.xlsx
+++ b/Diccionario de datos - ItaliPizza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmx-my.sharepoint.com/personal/zs19014020_estudiantes_uv_mx/Documents/DesaSoft_Equipo2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="13_ncr:1_{5AC0D963-0438-4ED8-BC07-8AE0D4C71A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51200F34-13E3-4AEE-852C-189A6C43B24E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{382BFDAF-F2AE-4EBA-8D31-BA374616AF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="190">
   <si>
     <t>Equipo 2</t>
   </si>
@@ -295,40 +294,85 @@
     <t>Restricciones</t>
   </si>
   <si>
-    <t>DI13</t>
+    <t>DP1</t>
   </si>
   <si>
     <t>Productos</t>
   </si>
   <si>
-    <t>DI14</t>
-  </si>
-  <si>
-    <t>DI15</t>
-  </si>
-  <si>
-    <t>DI16</t>
-  </si>
-  <si>
-    <t>DI17</t>
-  </si>
-  <si>
-    <t>DI18</t>
-  </si>
-  <si>
-    <t>DI19</t>
-  </si>
-  <si>
-    <t>DI20</t>
-  </si>
-  <si>
-    <t>DI21</t>
-  </si>
-  <si>
-    <t>DI22</t>
-  </si>
-  <si>
-    <t>D10</t>
+    <t>DP2</t>
+  </si>
+  <si>
+    <t>DP3</t>
+  </si>
+  <si>
+    <t>DP4</t>
+  </si>
+  <si>
+    <t>DP5</t>
+  </si>
+  <si>
+    <t>DP6</t>
+  </si>
+  <si>
+    <t>DP7</t>
+  </si>
+  <si>
+    <t>Costo Venta</t>
+  </si>
+  <si>
+    <t>PrecioVenta</t>
+  </si>
+  <si>
+    <t>DP8</t>
+  </si>
+  <si>
+    <t>Autogenerado</t>
+  </si>
+  <si>
+    <t>DP9</t>
+  </si>
+  <si>
+    <t>DP10</t>
+  </si>
+  <si>
+    <t>DP11</t>
+  </si>
+  <si>
+    <t>DP12</t>
+  </si>
+  <si>
+    <t>DP13</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Archivo extensión .jpg, .png, .jpeg</t>
+  </si>
+  <si>
+    <t>Tamaño menos a 5 mb</t>
+  </si>
+  <si>
+    <t>DPC1</t>
+  </si>
+  <si>
+    <t>PedidosClientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["ID", </t>
+  </si>
+  <si>
+    <t>DPC2</t>
+  </si>
+  <si>
+    <t>DPC3</t>
+  </si>
+  <si>
+    <t>DPC4</t>
+  </si>
+  <si>
+    <t>DPC5</t>
   </si>
   <si>
     <t>DC1</t>
@@ -358,155 +402,212 @@
     <t>DC4</t>
   </si>
   <si>
-    <t>Actualización</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Activo | Dado de baja</t>
-  </si>
-  <si>
-    <t>Activo</t>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Caracteres numéricos</t>
+  </si>
+  <si>
+    <t>Telefono</t>
   </si>
   <si>
     <t>DC5</t>
   </si>
   <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Telefono</t>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Carácteres alfanuméricos</t>
   </si>
   <si>
     <t>DC6</t>
   </si>
   <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>Carácteres alfanuméricos</t>
+    <t>Fecha de Nacimiento</t>
+  </si>
+  <si>
+    <t>Nacimiento</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>La fecha no puede exceder a la fecha actual.</t>
   </si>
   <si>
     <t>DC7</t>
   </si>
   <si>
-    <t>Fecha de Nacimiento</t>
-  </si>
-  <si>
-    <t>Nacimiento</t>
-  </si>
-  <si>
-    <t>datetime</t>
+    <t>Calle</t>
   </si>
   <si>
     <t>DC8</t>
   </si>
   <si>
-    <t>Calle</t>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>No se aceptan números negativos</t>
   </si>
   <si>
     <t>DC9</t>
   </si>
   <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Numero</t>
+    <t>Solo se puede aplicar un filtro para realizar busquedas</t>
   </si>
   <si>
     <t>DC10</t>
   </si>
   <si>
+    <t>Cadena de caracteres</t>
+  </si>
+  <si>
+    <t>Si el criterio es alguno de los siguientes "Activos/ Eliminados/ Todos", este dato no permitirá su edición</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>El nombre del proveedor debe ser unico en la base de datos del sistema</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>Rfc</t>
+  </si>
+  <si>
+    <t>El RFC debe tener una longitud de 12 caracteres</t>
+  </si>
+  <si>
+    <t>Insumos que ofrecen</t>
+  </si>
+  <si>
+    <t>CategoriaInsumo</t>
+  </si>
+  <si>
     <t>DC11</t>
   </si>
   <si>
-    <t>DP1</t>
-  </si>
-  <si>
-    <t>Proveedores</t>
-  </si>
-  <si>
-    <t>DP2</t>
-  </si>
-  <si>
-    <t>DP3</t>
-  </si>
-  <si>
-    <t>RFC</t>
-  </si>
-  <si>
-    <t>Rfc</t>
-  </si>
-  <si>
-    <t>DP4</t>
-  </si>
-  <si>
-    <t>Insumos que ofrecen</t>
-  </si>
-  <si>
-    <t>CategoriaInsumo</t>
-  </si>
-  <si>
-    <t>DP5</t>
-  </si>
-  <si>
-    <t>DP6</t>
-  </si>
-  <si>
-    <t>DP7</t>
-  </si>
-  <si>
-    <t>DP8</t>
-  </si>
-  <si>
-    <t>DP9</t>
-  </si>
-  <si>
-    <t>DP10</t>
-  </si>
-  <si>
-    <t>DP11</t>
-  </si>
-  <si>
-    <t>DP12</t>
-  </si>
-  <si>
-    <t>[Nombre, Dirección, Teléfono, Activos, Eliminados, Todos]</t>
-  </si>
-  <si>
-    <t>Cadena de caracteres</t>
-  </si>
-  <si>
-    <t>Solo se puede aplicar un filtro para realizar busquedas</t>
-  </si>
-  <si>
-    <t>Si el criterio es alguno de los siguientes "Activos/ Eliminados/ Todos", este dato no permitirá su edición</t>
-  </si>
-  <si>
-    <t>Caracteres numéricos</t>
-  </si>
-  <si>
-    <t>Cadena de caracteres alfanuméricos con terminación @</t>
-  </si>
-  <si>
-    <t>El correo electrónico no debe contener espacios</t>
-  </si>
-  <si>
-    <t>No se aceptan números negativos</t>
-  </si>
-  <si>
-    <t>La fecha no puede exceder a la fecha actual.</t>
-  </si>
-  <si>
-    <t>Debe se</t>
+    <t>El Teléfono debe contener almenos 7 digitos y maximo 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Nombre, Categoría de Insumo, rfc, Eliminados] </t>
+  </si>
+  <si>
+    <t>El correo electrónico no debe contener espacios, debe contener "@"</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>DPP1</t>
+  </si>
+  <si>
+    <t>PedidosProveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Codigo", "Nombre del proveedor"] </t>
+  </si>
+  <si>
+    <t>DPP2</t>
+  </si>
+  <si>
+    <t>DPP3</t>
+  </si>
+  <si>
+    <t>Fecha entrega estimada</t>
+  </si>
+  <si>
+    <t>DPP4</t>
+  </si>
+  <si>
+    <t>DPP5</t>
+  </si>
+  <si>
+    <t>Pedidos Proveedores</t>
+  </si>
+  <si>
+    <t>Código del pedido</t>
+  </si>
+  <si>
+    <t>El  código del proveedor debe ser único en la base de datos del sistema</t>
+  </si>
+  <si>
+    <t>DPP6</t>
+  </si>
+  <si>
+    <t>El nombre del proveedor debe estar registrado para que pueda ser seleccionado</t>
+  </si>
+  <si>
+    <t>DPP7</t>
+  </si>
+  <si>
+    <t>El nombre del insumo debe estar registrado para que pueda ser seleccionado</t>
+  </si>
+  <si>
+    <t>DPP8</t>
+  </si>
+  <si>
+    <t>Costo Total</t>
+  </si>
+  <si>
+    <t>PrecioTotalPedidoProveedor</t>
+  </si>
+  <si>
+    <t>DPP10</t>
+  </si>
+  <si>
+    <t>Fecha de Entrega</t>
+  </si>
+  <si>
+    <t>DPP11</t>
+  </si>
+  <si>
+    <t>Fecha de Solicitud</t>
+  </si>
+  <si>
+    <t>DPP12</t>
+  </si>
+  <si>
+    <t>Fecha de entrega estimada</t>
+  </si>
+  <si>
+    <t>DHPC1</t>
+  </si>
+  <si>
+    <t>DHPC2</t>
+  </si>
+  <si>
+    <t>Historial Pedidos Clientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Código", "nombre"] </t>
+  </si>
+  <si>
+    <t>DSD1</t>
+  </si>
+  <si>
+    <t>DSD2</t>
+  </si>
+  <si>
+    <t>Salidas de Dinero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Fecha","Tipo"] </t>
+  </si>
+  <si>
+    <t>[Nombre, Teléfono, Eliminados]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +654,14 @@
     <font>
       <u/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -743,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,25 +885,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,9 +1003,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,7 +1021,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1240,32 +1344,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38:P38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1313,7 +1417,7 @@
         <v>44651</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1462,7 @@
       <c r="P4" s="32"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -1377,7 +1481,7 @@
       <c r="P5" s="35"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1395,7 +1499,7 @@
       <c r="O6" s="37"/>
       <c r="P6" s="38"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -1413,7 +1517,7 @@
       <c r="O7" s="48"/>
       <c r="P7" s="49"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -1455,7 +1559,7 @@
       </c>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1483,7 +1587,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -1526,12 +1630,12 @@
       <c r="N10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1574,12 +1678,12 @@
       <c r="N11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -1622,12 +1726,12 @@
       <c r="N12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="18"/>
-    </row>
-    <row r="13" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="P12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>47</v>
       </c>
@@ -1670,12 +1774,12 @@
       <c r="N13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="18"/>
-    </row>
-    <row r="14" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
@@ -1718,12 +1822,12 @@
       <c r="N14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="18"/>
-    </row>
-    <row r="15" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>54</v>
       </c>
@@ -1766,12 +1870,12 @@
       <c r="N15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="18"/>
-    </row>
-    <row r="16" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>61</v>
       </c>
@@ -1814,12 +1918,12 @@
       <c r="N16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="18"/>
-    </row>
-    <row r="17" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1862,12 +1966,12 @@
       <c r="N17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="18"/>
-    </row>
-    <row r="18" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>70</v>
       </c>
@@ -1910,12 +2014,12 @@
       <c r="N18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P18" s="18"/>
-    </row>
-    <row r="19" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>75</v>
       </c>
@@ -1958,12 +2062,12 @@
       <c r="N19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="P19" s="18"/>
-    </row>
-    <row r="20" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>81</v>
       </c>
@@ -2006,12 +2110,12 @@
       <c r="N20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>85</v>
       </c>
@@ -2054,12 +2158,12 @@
       <c r="N21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>87</v>
       </c>
@@ -2102,12 +2206,12 @@
       <c r="N22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>89</v>
       </c>
@@ -2150,12 +2254,12 @@
       <c r="N23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P23" s="18"/>
-    </row>
-    <row r="24" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>90</v>
       </c>
@@ -2198,12 +2302,12 @@
       <c r="N24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="17" t="s">
+      <c r="O24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="P24" s="18"/>
-    </row>
-    <row r="25" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
@@ -2246,12 +2350,12 @@
       <c r="N25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P25" s="18"/>
-    </row>
-    <row r="26" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>92</v>
       </c>
@@ -2294,172 +2398,368 @@
       <c r="N26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="O26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P26" s="18"/>
-    </row>
-    <row r="27" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="17"/>
+    </row>
+    <row r="27" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="18"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="10">
+        <v>100</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="17"/>
+    </row>
+    <row r="28" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
-    </row>
-    <row r="29" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="17"/>
+    </row>
+    <row r="29" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="17"/>
+    </row>
+    <row r="30" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="18"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="17"/>
+    </row>
+    <row r="31" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="10">
+        <v>50</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" s="17"/>
+    </row>
+    <row r="32" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="10">
+        <v>500</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="17"/>
+    </row>
+    <row r="33" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13"/>
-    </row>
-    <row r="34" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="10">
+        <v>500</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="17"/>
+    </row>
+    <row r="34" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>59</v>
@@ -2473,47 +2773,47 @@
       <c r="K34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="14" t="s">
-        <v>32</v>
+      <c r="L34" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="P34" s="18"/>
-    </row>
-    <row r="35" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="O34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" s="17"/>
+    </row>
+    <row r="35" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="10">
-        <v>500</v>
+        <v>32</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>31</v>
@@ -2521,95 +2821,95 @@
       <c r="K35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="14" t="s">
-        <v>32</v>
+      <c r="L35" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" s="18"/>
-    </row>
-    <row r="36" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="17"/>
+    </row>
+    <row r="36" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="10">
-        <v>500</v>
+        <v>32</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P36" s="18"/>
-    </row>
-    <row r="37" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="17"/>
+    </row>
+    <row r="37" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="10">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>31</v>
@@ -2618,142 +2918,142 @@
         <v>33</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P37" s="18"/>
-    </row>
-    <row r="38" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P37" s="17"/>
+    </row>
+    <row r="38" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" s="17"/>
+    </row>
+    <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="11" t="s">
+      <c r="B39" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="17"/>
+    </row>
+    <row r="40" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I38" s="10">
-        <v>100</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="P38" s="18"/>
-    </row>
-    <row r="39" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="10">
-        <v>100</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P39" s="18"/>
-    </row>
-    <row r="40" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="I40" s="10">
+        <v>500</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>31</v>
@@ -2761,41 +3061,41 @@
       <c r="K40" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="12" t="s">
         <v>32</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O40" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="P40" s="18"/>
-    </row>
-    <row r="41" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="O40" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P40" s="17"/>
+    </row>
+    <row r="41" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>59</v>
@@ -2809,7 +3109,7 @@
       <c r="K41" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="12" t="s">
         <v>32</v>
       </c>
       <c r="M41" s="10" t="s">
@@ -2818,256 +3118,326 @@
       <c r="N41" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O41" s="17" t="s">
+      <c r="O41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="18"/>
-    </row>
-    <row r="42" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="P41" s="17"/>
+    </row>
+    <row r="42" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="10">
+        <v>500</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" s="17"/>
+    </row>
+    <row r="43" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="10">
         <v>100</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O42" s="17" t="s">
+      <c r="J43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="P42" s="18"/>
-    </row>
-    <row r="43" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="E44" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="10">
         <v>100</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="P43" s="18"/>
-    </row>
-    <row r="44" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="J44" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="P44" s="18"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="18"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="18"/>
-    </row>
-    <row r="47" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" s="17"/>
+    </row>
+    <row r="45" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P45" s="17"/>
+    </row>
+    <row r="46" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="10">
+        <v>500</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" s="17"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F47" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I47" s="10">
-        <v>500</v>
+      <c r="I47" s="12">
+        <v>100</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="18"/>
-    </row>
-    <row r="48" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P47" s="17"/>
+    </row>
+    <row r="48" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="10">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>31</v>
@@ -3075,79 +3445,95 @@
       <c r="K48" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="18"/>
-    </row>
-    <row r="49" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="L48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P48" s="17"/>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I49" s="10">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="18"/>
-    </row>
-    <row r="50" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P49" s="17"/>
+    </row>
+    <row r="50" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I50" s="10">
-        <v>500</v>
+        <v>32</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>31</v>
@@ -3155,115 +3541,112 @@
       <c r="K50" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="18"/>
-    </row>
-    <row r="51" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="L50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="17"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="18"/>
-    </row>
-    <row r="52" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="O51" s="16"/>
+      <c r="P51" s="17"/>
+    </row>
+    <row r="52" spans="1:17" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I52" s="10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="18"/>
-    </row>
-    <row r="53" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="15"/>
+    </row>
+    <row r="53" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I53" s="10">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J53" s="10" t="s">
         <v>31</v>
@@ -3271,177 +3654,1231 @@
       <c r="K53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="13"/>
-    </row>
-    <row r="54" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="L53" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="P53" s="18"/>
+    </row>
+    <row r="54" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I54" s="10"/>
+      <c r="I54" s="10">
+        <v>100</v>
+      </c>
       <c r="J54" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="13"/>
-    </row>
-    <row r="55" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="L54" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="P54" s="17"/>
+    </row>
+    <row r="55" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D55" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="10">
+        <v>500</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P55" s="17"/>
+    </row>
+    <row r="56" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="10">
+        <v>100</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P56" s="17"/>
+    </row>
+    <row r="57" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="10">
+        <v>500</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" s="17"/>
+    </row>
+    <row r="58" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="10">
+        <v>100</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P58" s="17"/>
+    </row>
+    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="10">
+        <v>500</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P59" s="17"/>
+    </row>
+    <row r="60" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="13"/>
-    </row>
-    <row r="56" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="E60" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P60" s="17"/>
+    </row>
+    <row r="61" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="13"/>
-    </row>
-    <row r="57" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+      <c r="F61" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="16"/>
-    </row>
-    <row r="58" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="P61" s="17"/>
+    </row>
+    <row r="62" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="16"/>
+      <c r="C62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" s="17"/>
+    </row>
+    <row r="63" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P63" s="17"/>
+    </row>
+    <row r="64" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P64" s="17"/>
+    </row>
+    <row r="65" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P65" s="17"/>
+    </row>
+    <row r="66" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66" s="17"/>
+    </row>
+    <row r="67" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" s="10">
+        <v>10</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O67" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P67" s="17"/>
+    </row>
+    <row r="68" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="P68" s="17"/>
+    </row>
+    <row r="69" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="P69" s="17"/>
+    </row>
+    <row r="70" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" s="10">
+        <v>0</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" s="17"/>
+    </row>
+    <row r="71" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P71" s="17"/>
+    </row>
+    <row r="72" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" s="17"/>
+    </row>
+    <row r="73" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P73" s="17"/>
+    </row>
+    <row r="74" spans="1:16" ht="51" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P74" s="17"/>
+    </row>
+    <row r="75" spans="1:16" ht="51" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P75" s="17"/>
+    </row>
+    <row r="76" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P76" s="17"/>
+    </row>
+    <row r="77" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="90">
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O58:P58"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O30:P30"/>
     <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O40:P40"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O60:P60"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
     <mergeCell ref="E1:G3"/>
     <mergeCell ref="H1:N3"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O33:P33"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="J8:L8"/>
@@ -3458,27 +4895,23 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:P6"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:P53"/>
     <mergeCell ref="O49:P49"/>
     <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
